--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2106.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2106.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.971417957340396</v>
+        <v>4.208529472351074</v>
       </c>
       <c r="B1">
-        <v>2.37388592954848</v>
+        <v>2.64684009552002</v>
       </c>
       <c r="C1">
-        <v>2.079390726700062</v>
+        <v>1.907177925109863</v>
       </c>
       <c r="D1">
-        <v>2.250749905179629</v>
+        <v>1.758663177490234</v>
       </c>
       <c r="E1">
-        <v>2.745133861695797</v>
+        <v>1.811660170555115</v>
       </c>
     </row>
   </sheetData>
